--- a/tests/Feature/ImportTest/simple_dummies_100.xlsx
+++ b/tests/Feature/ImportTest/simple_dummies_100.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
     <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_time</t>
   </si>
   <si>
     <t xml:space="preserve">test 1</t>
@@ -332,9 +335,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -402,13 +406,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -428,16 +440,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D103" activeCellId="0" sqref="D103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H104" activeCellId="0" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -447,21 +460,30 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,7 +491,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -477,7 +502,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,7 +513,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -493,7 +524,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,7 +535,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,7 +546,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,7 +557,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,7 +568,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,7 +579,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,7 +590,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,7 +601,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,7 +612,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,7 +623,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,7 +634,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,7 +645,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -589,7 +656,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,7 +667,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,7 +678,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,7 +689,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,7 +700,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,7 +711,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,7 +722,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,7 +733,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,7 +744,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -661,7 +755,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,7 +766,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,7 +777,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,7 +788,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,7 +799,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,7 +810,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,7 +821,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,7 +832,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,7 +843,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,7 +854,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,7 +865,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,7 +876,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,7 +887,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,7 +898,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,7 +909,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,7 +920,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,7 +931,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,7 +942,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,7 +953,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,7 +964,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,7 +975,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,7 +986,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,7 +997,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -845,7 +1008,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,7 +1019,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,7 +1030,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,7 +1041,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,7 +1052,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,7 +1063,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -893,7 +1074,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -901,7 +1085,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,7 +1096,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -917,7 +1107,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,7 +1118,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,7 +1129,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,7 +1140,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -949,7 +1151,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,7 +1162,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -965,7 +1173,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,7 +1184,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,7 +1195,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,7 +1206,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,7 +1217,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,7 +1228,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,7 +1239,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,7 +1250,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,7 +1261,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1037,7 +1272,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,7 +1283,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,7 +1294,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1061,7 +1305,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,7 +1316,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,7 +1327,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,7 +1338,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,7 +1349,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,7 +1360,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1109,7 +1371,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,7 +1382,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1125,7 +1393,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,7 +1404,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,7 +1415,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,7 +1426,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,7 +1437,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1165,7 +1448,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,7 +1459,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,7 +1470,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,7 +1481,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,7 +1492,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,7 +1503,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,7 +1514,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,7 +1525,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,7 +1536,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,7 +1547,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,7 +1558,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
   </sheetData>
